--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt10b</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.244558</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>0.2038744180444444</v>
+        <v>0.06585031206155556</v>
       </c>
       <c r="R2">
-        <v>1.8348697624</v>
+        <v>0.592652808554</v>
       </c>
       <c r="S2">
-        <v>0.129395502869887</v>
+        <v>0.02037161111573167</v>
       </c>
       <c r="T2">
-        <v>0.129395502869887</v>
+        <v>0.02037161111573167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.244558</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
         <v>0.6344329342353333</v>
@@ -635,10 +635,10 @@
         <v>5.709896408117999</v>
       </c>
       <c r="S3">
-        <v>0.4026634108880828</v>
+        <v>0.1962697003344993</v>
       </c>
       <c r="T3">
-        <v>0.4026634108880828</v>
+        <v>0.1962697003344993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.244558</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>0.3651056380524444</v>
+        <v>0.408394034439111</v>
       </c>
       <c r="R4">
-        <v>3.285950742472</v>
+        <v>3.675546309951999</v>
       </c>
       <c r="S4">
-        <v>0.2317261188999595</v>
+        <v>0.1263417619616025</v>
       </c>
       <c r="T4">
-        <v>0.2317261188999595</v>
+        <v>0.1263417619616025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>0.244558</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4155743081351682</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>0.3721782282393334</v>
+        <v>0.2346478848584444</v>
       </c>
       <c r="R5">
-        <v>3.349604054154</v>
+        <v>2.111830963726</v>
       </c>
       <c r="S5">
-        <v>0.2362149673420707</v>
+        <v>0.07259123472333461</v>
       </c>
       <c r="T5">
-        <v>0.2362149673420707</v>
+        <v>0.07259123472333461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1146413333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.343924</v>
+      </c>
+      <c r="I6">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="J6">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8077876666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.423363</v>
+      </c>
+      <c r="O6">
+        <v>0.04902038147436601</v>
+      </c>
+      <c r="P6">
+        <v>0.04902038147436601</v>
+      </c>
+      <c r="Q6">
+        <v>0.09260585515688889</v>
+      </c>
+      <c r="R6">
+        <v>0.833452696412</v>
+      </c>
+      <c r="S6">
+        <v>0.02864877035863434</v>
+      </c>
+      <c r="T6">
+        <v>0.02864877035863435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1146413333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.343924</v>
+      </c>
+      <c r="I7">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="J7">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.782607</v>
+      </c>
+      <c r="N7">
+        <v>23.347821</v>
+      </c>
+      <c r="O7">
+        <v>0.4722854529078861</v>
+      </c>
+      <c r="P7">
+        <v>0.4722854529078861</v>
+      </c>
+      <c r="Q7">
+        <v>0.8922084432893332</v>
+      </c>
+      <c r="R7">
+        <v>8.029875989603999</v>
+      </c>
+      <c r="S7">
+        <v>0.2760157525733868</v>
+      </c>
+      <c r="T7">
+        <v>0.2760157525733868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1146413333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.343924</v>
+      </c>
+      <c r="I8">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="J8">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.009781333333333</v>
+      </c>
+      <c r="N8">
+        <v>15.029344</v>
+      </c>
+      <c r="O8">
+        <v>0.3040172587389813</v>
+      </c>
+      <c r="P8">
+        <v>0.3040172587389813</v>
+      </c>
+      <c r="Q8">
+        <v>0.5743280117617777</v>
+      </c>
+      <c r="R8">
+        <v>5.168952105856</v>
+      </c>
+      <c r="S8">
+        <v>0.1776754967773788</v>
+      </c>
+      <c r="T8">
+        <v>0.1776754967773788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1146413333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.343924</v>
+      </c>
+      <c r="I9">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="J9">
+        <v>0.584425691864832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.878432333333333</v>
+      </c>
+      <c r="N9">
+        <v>8.635297</v>
+      </c>
+      <c r="O9">
+        <v>0.1746769068787666</v>
+      </c>
+      <c r="P9">
+        <v>0.1746769068787666</v>
+      </c>
+      <c r="Q9">
+        <v>0.3299873206031111</v>
+      </c>
+      <c r="R9">
+        <v>2.969885885428</v>
+      </c>
+      <c r="S9">
+        <v>0.102085672155432</v>
+      </c>
+      <c r="T9">
+        <v>0.102085672155432</v>
       </c>
     </row>
   </sheetData>
